--- a/заказы/статистика филиалы/2024/01,24/03,01,24 КИ/дв 03,01,24 лгрсч от филиала.xlsx
+++ b/заказы/статистика филиалы/2024/01,24/03,01,24 КИ/дв 03,01,24 лгрсч от филиала.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\03,01,24 филиалы КИ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\ПОКОМ\pokom_data\заказы\статистика филиалы\2024\01,24\03,01,24 КИ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8404E2DC-4260-429D-9B60-FC56B1355B56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC64446B-4659-443F-A68B-ECFFCC6C5112}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="134">
   <si>
     <t>Период: 27.12.2023 - 03.01.2024</t>
   </si>
@@ -435,6 +435,9 @@
   <si>
     <t>маленькие остатки, на 2недели не хватит</t>
   </si>
+  <si>
+    <t>05,01,</t>
+  </si>
 </sst>
 </file>
 
@@ -451,6 +454,8 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="8"/>
@@ -801,12 +806,12 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -8249,8 +8254,8 @@
   <dimension ref="A1:X108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W13" sqref="W13"/>
+      <pane ySplit="5" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -8376,7 +8381,9 @@
         <v>126</v>
       </c>
       <c r="N4" s="17"/>
-      <c r="O4" s="34"/>
+      <c r="O4" s="37" t="s">
+        <v>133</v>
+      </c>
       <c r="P4" s="14" t="s">
         <v>121</v>
       </c>
@@ -8436,7 +8443,7 @@
         <f t="shared" si="1"/>
         <v>4839.5990000000002</v>
       </c>
-      <c r="O5" s="35">
+      <c r="O5" s="34">
         <f t="shared" ref="O5" si="2">SUM(O6:O204)</f>
         <v>4919.5990000000002</v>
       </c>
@@ -8501,7 +8508,7 @@
         <v>0</v>
       </c>
       <c r="N6" s="29"/>
-      <c r="O6" s="36"/>
+      <c r="O6" s="35"/>
       <c r="P6" s="31"/>
       <c r="R6" s="2" t="e">
         <f>(F6+K6+L6+O6)/M6</f>
@@ -8563,7 +8570,7 @@
         <v>0.45200000000000001</v>
       </c>
       <c r="N7" s="29"/>
-      <c r="O7" s="36"/>
+      <c r="O7" s="35"/>
       <c r="P7" s="31"/>
       <c r="R7" s="2">
         <f t="shared" ref="R7:R70" si="6">(F7+K7+L7+O7)/M7</f>
@@ -8637,7 +8644,7 @@
       <c r="N8" s="29">
         <v>500</v>
       </c>
-      <c r="O8" s="36">
+      <c r="O8" s="35">
         <f>N8</f>
         <v>500</v>
       </c>
@@ -8715,7 +8722,7 @@
         <v>18.325666666666667</v>
       </c>
       <c r="N9" s="29"/>
-      <c r="O9" s="36"/>
+      <c r="O9" s="35"/>
       <c r="P9" s="31"/>
       <c r="R9" s="2">
         <f t="shared" si="6"/>
@@ -8790,7 +8797,7 @@
         <v>57.260999999999996</v>
       </c>
       <c r="N10" s="29"/>
-      <c r="O10" s="36"/>
+      <c r="O10" s="35"/>
       <c r="P10" s="31"/>
       <c r="R10" s="2">
         <f t="shared" si="6"/>
@@ -8868,8 +8875,8 @@
         <f t="shared" ref="N11" si="9">11*M11-L11-K11-F11</f>
         <v>65.649666666666661</v>
       </c>
-      <c r="O11" s="36">
-        <f t="shared" ref="O9:O72" si="10">N11</f>
+      <c r="O11" s="35">
+        <f t="shared" ref="O11:O68" si="10">N11</f>
         <v>65.649666666666661</v>
       </c>
       <c r="P11" s="31"/>
@@ -8938,7 +8945,7 @@
         <v>0</v>
       </c>
       <c r="N12" s="29"/>
-      <c r="O12" s="36"/>
+      <c r="O12" s="35"/>
       <c r="P12" s="31"/>
       <c r="R12" s="2" t="e">
         <f t="shared" si="6"/>
@@ -9007,7 +9014,7 @@
         <v>12</v>
       </c>
       <c r="N13" s="29"/>
-      <c r="O13" s="36"/>
+      <c r="O13" s="35"/>
       <c r="P13" s="31"/>
       <c r="R13" s="2">
         <f t="shared" si="6"/>
@@ -9078,7 +9085,7 @@
         <v>12.333333333333334</v>
       </c>
       <c r="N14" s="29"/>
-      <c r="O14" s="36"/>
+      <c r="O14" s="35"/>
       <c r="P14" s="31"/>
       <c r="R14" s="2">
         <f t="shared" si="6"/>
@@ -9149,7 +9156,7 @@
       <c r="N15" s="29">
         <v>40</v>
       </c>
-      <c r="O15" s="36">
+      <c r="O15" s="35">
         <f t="shared" si="10"/>
         <v>40</v>
       </c>
@@ -9217,7 +9224,7 @@
         <v>1.6666666666666667</v>
       </c>
       <c r="N16" s="29"/>
-      <c r="O16" s="36"/>
+      <c r="O16" s="35"/>
       <c r="P16" s="31"/>
       <c r="R16" s="2">
         <f t="shared" si="6"/>
@@ -9276,7 +9283,7 @@
         <v>0</v>
       </c>
       <c r="N17" s="29"/>
-      <c r="O17" s="36"/>
+      <c r="O17" s="35"/>
       <c r="P17" s="31"/>
       <c r="R17" s="2" t="e">
         <f t="shared" si="6"/>
@@ -9335,7 +9342,7 @@
         <v>0</v>
       </c>
       <c r="N18" s="29"/>
-      <c r="O18" s="36"/>
+      <c r="O18" s="35"/>
       <c r="P18" s="31"/>
       <c r="R18" s="2" t="e">
         <f t="shared" si="6"/>
@@ -9394,7 +9401,7 @@
         <v>0</v>
       </c>
       <c r="N19" s="29"/>
-      <c r="O19" s="36"/>
+      <c r="O19" s="35"/>
       <c r="P19" s="31"/>
       <c r="R19" s="2" t="e">
         <f t="shared" si="6"/>
@@ -9462,7 +9469,7 @@
         <f t="shared" ref="N20" si="11">11*M20-L20-K20-F20</f>
         <v>42.666666666666686</v>
       </c>
-      <c r="O20" s="36">
+      <c r="O20" s="35">
         <f t="shared" si="10"/>
         <v>42.666666666666686</v>
       </c>
@@ -9536,7 +9543,7 @@
         <v>8</v>
       </c>
       <c r="N21" s="29"/>
-      <c r="O21" s="36"/>
+      <c r="O21" s="35"/>
       <c r="P21" s="31"/>
       <c r="R21" s="2">
         <f t="shared" si="6"/>
@@ -9607,7 +9614,7 @@
         <v>13.333333333333334</v>
       </c>
       <c r="N22" s="29"/>
-      <c r="O22" s="36"/>
+      <c r="O22" s="35"/>
       <c r="P22" s="31"/>
       <c r="R22" s="2">
         <f t="shared" si="6"/>
@@ -9678,7 +9685,7 @@
         <v>20.333333333333332</v>
       </c>
       <c r="N23" s="29"/>
-      <c r="O23" s="36"/>
+      <c r="O23" s="35"/>
       <c r="P23" s="31"/>
       <c r="R23" s="2">
         <f t="shared" si="6"/>
@@ -9737,7 +9744,7 @@
         <v>0</v>
       </c>
       <c r="N24" s="29"/>
-      <c r="O24" s="36"/>
+      <c r="O24" s="35"/>
       <c r="P24" s="31"/>
       <c r="R24" s="2" t="e">
         <f t="shared" si="6"/>
@@ -9796,7 +9803,7 @@
         <v>0</v>
       </c>
       <c r="N25" s="29"/>
-      <c r="O25" s="36"/>
+      <c r="O25" s="35"/>
       <c r="P25" s="31"/>
       <c r="R25" s="2" t="e">
         <f t="shared" si="6"/>
@@ -9865,7 +9872,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="N26" s="29"/>
-      <c r="O26" s="36"/>
+      <c r="O26" s="35"/>
       <c r="P26" s="31"/>
       <c r="R26" s="2">
         <f t="shared" si="6"/>
@@ -9928,7 +9935,7 @@
         <v>0</v>
       </c>
       <c r="N27" s="29"/>
-      <c r="O27" s="36"/>
+      <c r="O27" s="35"/>
       <c r="P27" s="31"/>
       <c r="R27" s="2" t="e">
         <f t="shared" si="6"/>
@@ -9985,7 +9992,7 @@
         <v>0</v>
       </c>
       <c r="N28" s="29"/>
-      <c r="O28" s="36"/>
+      <c r="O28" s="35"/>
       <c r="P28" s="31"/>
       <c r="R28" s="2" t="e">
         <f t="shared" si="6"/>
@@ -10042,7 +10049,7 @@
       <c r="N29" s="30">
         <v>30</v>
       </c>
-      <c r="O29" s="36">
+      <c r="O29" s="35">
         <f t="shared" si="10"/>
         <v>30</v>
       </c>
@@ -10115,7 +10122,7 @@
         <f>10*M30-L30-K30-F30</f>
         <v>13.666666666666657</v>
       </c>
-      <c r="O30" s="36">
+      <c r="O30" s="35">
         <f t="shared" si="10"/>
         <v>13.666666666666657</v>
       </c>
@@ -10186,7 +10193,7 @@
         <f>9*M31-L31-K31-F31</f>
         <v>42</v>
       </c>
-      <c r="O31" s="36">
+      <c r="O31" s="35">
         <f t="shared" si="10"/>
         <v>42</v>
       </c>
@@ -10264,7 +10271,7 @@
         <v>46.961666666666666</v>
       </c>
       <c r="N32" s="29"/>
-      <c r="O32" s="36"/>
+      <c r="O32" s="35"/>
       <c r="P32" s="31"/>
       <c r="R32" s="2">
         <f t="shared" si="6"/>
@@ -10341,7 +10348,7 @@
       <c r="N33" s="29">
         <v>300</v>
       </c>
-      <c r="O33" s="36">
+      <c r="O33" s="35">
         <f t="shared" si="10"/>
         <v>300</v>
       </c>
@@ -10414,7 +10421,7 @@
         <f t="shared" ref="N34" si="12">11*M34-L34-K34-F34</f>
         <v>86.785333333333327</v>
       </c>
-      <c r="O34" s="36">
+      <c r="O34" s="35">
         <f t="shared" si="10"/>
         <v>86.785333333333327</v>
       </c>
@@ -10492,7 +10499,7 @@
         <v>136.73699999999999</v>
       </c>
       <c r="N35" s="29"/>
-      <c r="O35" s="36"/>
+      <c r="O35" s="35"/>
       <c r="P35" s="31"/>
       <c r="R35" s="2">
         <f t="shared" si="6"/>
@@ -10554,7 +10561,7 @@
         <v>3.464</v>
       </c>
       <c r="N36" s="29"/>
-      <c r="O36" s="36"/>
+      <c r="O36" s="35"/>
       <c r="P36" s="31"/>
       <c r="R36" s="2">
         <f t="shared" si="6"/>
@@ -10626,7 +10633,7 @@
         <v>394.50866666666667</v>
       </c>
       <c r="N37" s="29"/>
-      <c r="O37" s="36"/>
+      <c r="O37" s="35"/>
       <c r="P37" s="31"/>
       <c r="R37" s="2">
         <f t="shared" si="6"/>
@@ -10693,7 +10700,7 @@
         <v>19.102333333333334</v>
       </c>
       <c r="N38" s="29"/>
-      <c r="O38" s="36"/>
+      <c r="O38" s="35"/>
       <c r="P38" s="31"/>
       <c r="R38" s="2">
         <f t="shared" si="6"/>
@@ -10768,7 +10775,7 @@
         <v>116.25433333333332</v>
       </c>
       <c r="N39" s="29"/>
-      <c r="O39" s="36"/>
+      <c r="O39" s="35"/>
       <c r="P39" s="31"/>
       <c r="R39" s="2">
         <f t="shared" si="6"/>
@@ -10845,7 +10852,7 @@
       <c r="N40" s="29">
         <v>400</v>
       </c>
-      <c r="O40" s="36">
+      <c r="O40" s="35">
         <f t="shared" si="10"/>
         <v>400</v>
       </c>
@@ -10925,7 +10932,7 @@
       <c r="N41" s="29">
         <v>800</v>
       </c>
-      <c r="O41" s="36">
+      <c r="O41" s="35">
         <f t="shared" si="10"/>
         <v>800</v>
       </c>
@@ -10999,7 +11006,7 @@
         <v>31.369666666666664</v>
       </c>
       <c r="N42" s="29"/>
-      <c r="O42" s="36"/>
+      <c r="O42" s="35"/>
       <c r="P42" s="31"/>
       <c r="R42" s="2">
         <f t="shared" si="6"/>
@@ -11074,7 +11081,7 @@
         <v>35.978666666666669</v>
       </c>
       <c r="N43" s="29"/>
-      <c r="O43" s="36"/>
+      <c r="O43" s="35"/>
       <c r="P43" s="31"/>
       <c r="R43" s="2">
         <f t="shared" si="6"/>
@@ -11149,7 +11156,7 @@
         <v>60.183999999999997</v>
       </c>
       <c r="N44" s="29"/>
-      <c r="O44" s="36"/>
+      <c r="O44" s="35"/>
       <c r="P44" s="31"/>
       <c r="R44" s="2">
         <f t="shared" si="6"/>
@@ -11220,7 +11227,7 @@
         <v>13.022333333333334</v>
       </c>
       <c r="N45" s="29"/>
-      <c r="O45" s="36"/>
+      <c r="O45" s="35"/>
       <c r="P45" s="31"/>
       <c r="R45" s="2">
         <f t="shared" si="6"/>
@@ -11291,7 +11298,7 @@
         <v>16.547333333333334</v>
       </c>
       <c r="N46" s="29"/>
-      <c r="O46" s="36"/>
+      <c r="O46" s="35"/>
       <c r="P46" s="31"/>
       <c r="R46" s="2">
         <f t="shared" si="6"/>
@@ -11362,7 +11369,7 @@
         <v>23.067999999999998</v>
       </c>
       <c r="N47" s="29"/>
-      <c r="O47" s="36">
+      <c r="O47" s="35">
         <v>40</v>
       </c>
       <c r="P47" s="32">
@@ -11440,7 +11447,7 @@
         <v>19.122333333333334</v>
       </c>
       <c r="N48" s="29"/>
-      <c r="O48" s="36">
+      <c r="O48" s="35">
         <v>40</v>
       </c>
       <c r="P48" s="32">
@@ -11518,7 +11525,7 @@
         <v>25.396000000000001</v>
       </c>
       <c r="N49" s="29"/>
-      <c r="O49" s="36"/>
+      <c r="O49" s="35"/>
       <c r="P49" s="32">
         <v>200</v>
       </c>
@@ -11591,7 +11598,7 @@
         <f>6*M50-L50-K50-F50</f>
         <v>79.603999999999999</v>
       </c>
-      <c r="O50" s="36">
+      <c r="O50" s="35">
         <f t="shared" si="10"/>
         <v>79.603999999999999</v>
       </c>
@@ -11662,7 +11669,7 @@
         <f t="shared" ref="N51" si="13">11*M51-L51-K51-F51</f>
         <v>480.81533333333346</v>
       </c>
-      <c r="O51" s="36">
+      <c r="O51" s="35">
         <f t="shared" si="10"/>
         <v>480.81533333333346</v>
       </c>
@@ -11734,7 +11741,7 @@
         <v>-6.3063333333333338</v>
       </c>
       <c r="N52" s="29"/>
-      <c r="O52" s="36"/>
+      <c r="O52" s="35"/>
       <c r="P52" s="31"/>
       <c r="R52" s="2">
         <f t="shared" si="6"/>
@@ -11799,7 +11806,7 @@
         <v>0.44066666666666671</v>
       </c>
       <c r="N53" s="29"/>
-      <c r="O53" s="36"/>
+      <c r="O53" s="35"/>
       <c r="P53" s="31"/>
       <c r="R53" s="2">
         <f t="shared" si="6"/>
@@ -11867,7 +11874,7 @@
         <v>4.7299999999999995</v>
       </c>
       <c r="N54" s="29"/>
-      <c r="O54" s="36"/>
+      <c r="O54" s="35"/>
       <c r="P54" s="31"/>
       <c r="R54" s="2">
         <f t="shared" si="6"/>
@@ -11942,7 +11949,7 @@
         <f>10*M55-L55-K55-F55</f>
         <v>95.822999999999979</v>
       </c>
-      <c r="O55" s="36">
+      <c r="O55" s="35">
         <f t="shared" si="10"/>
         <v>95.822999999999979</v>
       </c>
@@ -12016,7 +12023,7 @@
         <v>8.147333333333334</v>
       </c>
       <c r="N56" s="29"/>
-      <c r="O56" s="36"/>
+      <c r="O56" s="35"/>
       <c r="P56" s="31"/>
       <c r="R56" s="2">
         <f t="shared" si="6"/>
@@ -12085,7 +12092,7 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="N57" s="29"/>
-      <c r="O57" s="36"/>
+      <c r="O57" s="35"/>
       <c r="P57" s="31"/>
       <c r="R57" s="2">
         <f t="shared" si="6"/>
@@ -12154,7 +12161,7 @@
         <v>4</v>
       </c>
       <c r="N58" s="29"/>
-      <c r="O58" s="36"/>
+      <c r="O58" s="35"/>
       <c r="P58" s="31"/>
       <c r="R58" s="2">
         <f t="shared" si="6"/>
@@ -12213,7 +12220,7 @@
         <v>0</v>
       </c>
       <c r="N59" s="29"/>
-      <c r="O59" s="36"/>
+      <c r="O59" s="35"/>
       <c r="P59" s="31"/>
       <c r="R59" s="2" t="e">
         <f t="shared" si="6"/>
@@ -12290,7 +12297,7 @@
         <v>31.476333333333333</v>
       </c>
       <c r="N60" s="29"/>
-      <c r="O60" s="36"/>
+      <c r="O60" s="35"/>
       <c r="P60" s="31"/>
       <c r="R60" s="2">
         <f t="shared" si="6"/>
@@ -12360,7 +12367,7 @@
         <f t="shared" ref="N61:N68" si="14">11*M61-L61-K61-F61</f>
         <v>38.666666666666657</v>
       </c>
-      <c r="O61" s="36">
+      <c r="O61" s="35">
         <f t="shared" si="10"/>
         <v>38.666666666666657</v>
       </c>
@@ -12435,7 +12442,7 @@
         <f t="shared" si="14"/>
         <v>70.780999999999977</v>
       </c>
-      <c r="O62" s="36">
+      <c r="O62" s="35">
         <f t="shared" si="10"/>
         <v>70.780999999999977</v>
       </c>
@@ -12507,7 +12514,7 @@
         <v>1.6666666666666667</v>
       </c>
       <c r="N63" s="29"/>
-      <c r="O63" s="36"/>
+      <c r="O63" s="35"/>
       <c r="P63" s="31"/>
       <c r="R63" s="2">
         <f t="shared" si="6"/>
@@ -12576,7 +12583,7 @@
         <v>2.3333333333333335</v>
       </c>
       <c r="N64" s="29"/>
-      <c r="O64" s="36"/>
+      <c r="O64" s="35"/>
       <c r="P64" s="31"/>
       <c r="R64" s="2">
         <f t="shared" si="6"/>
@@ -12645,7 +12652,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="N65" s="29"/>
-      <c r="O65" s="36"/>
+      <c r="O65" s="35"/>
       <c r="P65" s="31"/>
       <c r="R65" s="2">
         <f t="shared" si="6"/>
@@ -12719,7 +12726,7 @@
         <f t="shared" si="14"/>
         <v>433.86866666666674</v>
       </c>
-      <c r="O66" s="36">
+      <c r="O66" s="35">
         <f t="shared" si="10"/>
         <v>433.86866666666674</v>
       </c>
@@ -12796,7 +12803,7 @@
         <f t="shared" si="14"/>
         <v>511.60766666666677</v>
       </c>
-      <c r="O67" s="36">
+      <c r="O67" s="35">
         <f t="shared" si="10"/>
         <v>511.60766666666677</v>
       </c>
@@ -12873,7 +12880,7 @@
         <f t="shared" si="14"/>
         <v>314.7736666666666</v>
       </c>
-      <c r="O68" s="36">
+      <c r="O68" s="35">
         <f t="shared" si="10"/>
         <v>314.7736666666666</v>
       </c>
@@ -12935,7 +12942,7 @@
         <v>0</v>
       </c>
       <c r="N69" s="29"/>
-      <c r="O69" s="36"/>
+      <c r="O69" s="35"/>
       <c r="P69" s="31"/>
       <c r="R69" s="2" t="e">
         <f t="shared" si="6"/>
@@ -12998,7 +13005,7 @@
         <v>0</v>
       </c>
       <c r="N70" s="29"/>
-      <c r="O70" s="36"/>
+      <c r="O70" s="35"/>
       <c r="P70" s="31"/>
       <c r="R70" s="2" t="e">
         <f t="shared" si="6"/>
@@ -13067,7 +13074,7 @@
         <v>1.6666666666666667</v>
       </c>
       <c r="N71" s="29"/>
-      <c r="O71" s="36"/>
+      <c r="O71" s="35"/>
       <c r="P71" s="31"/>
       <c r="R71" s="2">
         <f t="shared" ref="R71:R108" si="17">(F71+K71+L71+O71)/M71</f>
@@ -13138,7 +13145,7 @@
         <v>28</v>
       </c>
       <c r="N72" s="29"/>
-      <c r="O72" s="36"/>
+      <c r="O72" s="35"/>
       <c r="P72" s="31"/>
       <c r="R72" s="2">
         <f t="shared" si="17"/>
@@ -13197,7 +13204,7 @@
         <v>0</v>
       </c>
       <c r="N73" s="29"/>
-      <c r="O73" s="36"/>
+      <c r="O73" s="35"/>
       <c r="P73" s="31"/>
       <c r="R73" s="2" t="e">
         <f t="shared" si="17"/>
@@ -13271,8 +13278,8 @@
         <f>11*M74-L74-K74-F74</f>
         <v>4.7049999999999983</v>
       </c>
-      <c r="O74" s="36">
-        <f t="shared" ref="O73:O102" si="20">N74</f>
+      <c r="O74" s="35">
+        <f t="shared" ref="O74:O102" si="20">N74</f>
         <v>4.7049999999999983</v>
       </c>
       <c r="P74" s="31"/>
@@ -13333,7 +13340,7 @@
         <v>0</v>
       </c>
       <c r="N75" s="29"/>
-      <c r="O75" s="36"/>
+      <c r="O75" s="35"/>
       <c r="P75" s="31"/>
       <c r="R75" s="2" t="e">
         <f t="shared" si="17"/>
@@ -13401,7 +13408,7 @@
         <f>9*M76-L76-K76-F76</f>
         <v>40</v>
       </c>
-      <c r="O76" s="36">
+      <c r="O76" s="35">
         <f t="shared" si="20"/>
         <v>40</v>
       </c>
@@ -13465,7 +13472,7 @@
         <v>0</v>
       </c>
       <c r="N77" s="29"/>
-      <c r="O77" s="36"/>
+      <c r="O77" s="35"/>
       <c r="P77" s="31"/>
       <c r="R77" s="2" t="e">
         <f t="shared" si="17"/>
@@ -13528,7 +13535,7 @@
         <v>0</v>
       </c>
       <c r="N78" s="29"/>
-      <c r="O78" s="36"/>
+      <c r="O78" s="35"/>
       <c r="P78" s="31"/>
       <c r="R78" s="2" t="e">
         <f t="shared" si="17"/>
@@ -13591,7 +13598,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="N79" s="29"/>
-      <c r="O79" s="36"/>
+      <c r="O79" s="35"/>
       <c r="P79" s="31"/>
       <c r="R79" s="2">
         <f t="shared" si="17"/>
@@ -13660,7 +13667,7 @@
         <v>10</v>
       </c>
       <c r="N80" s="29"/>
-      <c r="O80" s="36"/>
+      <c r="O80" s="35"/>
       <c r="P80" s="31"/>
       <c r="R80" s="2">
         <f t="shared" si="17"/>
@@ -13733,7 +13740,7 @@
         <v>7.6956666666666669</v>
       </c>
       <c r="N81" s="29"/>
-      <c r="O81" s="36"/>
+      <c r="O81" s="35"/>
       <c r="P81" s="31"/>
       <c r="R81" s="2">
         <f t="shared" si="17"/>
@@ -13804,7 +13811,7 @@
         <v>3</v>
       </c>
       <c r="N82" s="29"/>
-      <c r="O82" s="36"/>
+      <c r="O82" s="35"/>
       <c r="P82" s="31"/>
       <c r="R82" s="2">
         <f t="shared" si="17"/>
@@ -13875,7 +13882,7 @@
         <v>17.531333333333333</v>
       </c>
       <c r="N83" s="29"/>
-      <c r="O83" s="36"/>
+      <c r="O83" s="35"/>
       <c r="P83" s="31"/>
       <c r="R83" s="2">
         <f t="shared" si="17"/>
@@ -13946,7 +13953,7 @@
         <v>9.6666666666666661</v>
       </c>
       <c r="N84" s="29"/>
-      <c r="O84" s="36"/>
+      <c r="O84" s="35"/>
       <c r="P84" s="31"/>
       <c r="R84" s="2">
         <f t="shared" si="17"/>
@@ -14017,7 +14024,7 @@
         <v>19</v>
       </c>
       <c r="N85" s="29"/>
-      <c r="O85" s="36"/>
+      <c r="O85" s="35"/>
       <c r="P85" s="31"/>
       <c r="R85" s="2">
         <f t="shared" si="17"/>
@@ -14092,7 +14099,7 @@
         <v>64.065333333333328</v>
       </c>
       <c r="N86" s="29"/>
-      <c r="O86" s="36"/>
+      <c r="O86" s="35"/>
       <c r="P86" s="31"/>
       <c r="R86" s="2">
         <f t="shared" si="17"/>
@@ -14160,7 +14167,7 @@
         <f>8*M87-L87-K87-F87</f>
         <v>83.637666666666661</v>
       </c>
-      <c r="O87" s="36">
+      <c r="O87" s="35">
         <f t="shared" si="20"/>
         <v>83.637666666666661</v>
       </c>
@@ -14234,7 +14241,7 @@
         <v>26.333333333333332</v>
       </c>
       <c r="N88" s="29"/>
-      <c r="O88" s="36"/>
+      <c r="O88" s="35"/>
       <c r="P88" s="31"/>
       <c r="R88" s="2">
         <f t="shared" si="17"/>
@@ -14303,7 +14310,7 @@
         <v>8</v>
       </c>
       <c r="N89" s="29"/>
-      <c r="O89" s="36"/>
+      <c r="O89" s="35"/>
       <c r="P89" s="31"/>
       <c r="R89" s="2">
         <f t="shared" si="17"/>
@@ -14362,7 +14369,7 @@
         <v>0</v>
       </c>
       <c r="N90" s="29"/>
-      <c r="O90" s="36"/>
+      <c r="O90" s="35"/>
       <c r="P90" s="31"/>
       <c r="R90" s="2" t="e">
         <f t="shared" si="17"/>
@@ -14431,7 +14438,7 @@
         <v>8</v>
       </c>
       <c r="N91" s="29"/>
-      <c r="O91" s="36"/>
+      <c r="O91" s="35"/>
       <c r="P91" s="31"/>
       <c r="R91" s="2">
         <f t="shared" si="17"/>
@@ -14505,7 +14512,7 @@
         <f t="shared" ref="N92:N102" si="21">11*M92-L92-K92-F92</f>
         <v>225.88133333333334</v>
       </c>
-      <c r="O92" s="36">
+      <c r="O92" s="35">
         <f t="shared" si="20"/>
         <v>225.88133333333334</v>
       </c>
@@ -14579,7 +14586,7 @@
         <v>36.018999999999998</v>
       </c>
       <c r="N93" s="29"/>
-      <c r="O93" s="36"/>
+      <c r="O93" s="35"/>
       <c r="P93" s="31"/>
       <c r="R93" s="2">
         <f t="shared" si="17"/>
@@ -14651,7 +14658,7 @@
         <f t="shared" si="21"/>
         <v>24.666666666666671</v>
       </c>
-      <c r="O94" s="36">
+      <c r="O94" s="35">
         <f t="shared" si="20"/>
         <v>24.666666666666671</v>
       </c>
@@ -14713,7 +14720,7 @@
         <v>0</v>
       </c>
       <c r="N95" s="29"/>
-      <c r="O95" s="36"/>
+      <c r="O95" s="35"/>
       <c r="P95" s="31"/>
       <c r="R95" s="2" t="e">
         <f t="shared" si="17"/>
@@ -14788,7 +14795,7 @@
         <v>17</v>
       </c>
       <c r="N96" s="29"/>
-      <c r="O96" s="36"/>
+      <c r="O96" s="35"/>
       <c r="P96" s="31"/>
       <c r="R96" s="2">
         <f t="shared" si="17"/>
@@ -14859,7 +14866,7 @@
         <v>14.666666666666666</v>
       </c>
       <c r="N97" s="29"/>
-      <c r="O97" s="36"/>
+      <c r="O97" s="35"/>
       <c r="P97" s="31"/>
       <c r="R97" s="2">
         <f t="shared" si="17"/>
@@ -14930,7 +14937,7 @@
         <v>15</v>
       </c>
       <c r="N98" s="29"/>
-      <c r="O98" s="36"/>
+      <c r="O98" s="35"/>
       <c r="P98" s="31"/>
       <c r="R98" s="2">
         <f t="shared" si="17"/>
@@ -15001,7 +15008,7 @@
         <v>5</v>
       </c>
       <c r="N99" s="29"/>
-      <c r="O99" s="36"/>
+      <c r="O99" s="35"/>
       <c r="P99" s="31"/>
       <c r="R99" s="2">
         <f t="shared" si="17"/>
@@ -15072,7 +15079,7 @@
         <v>12.666666666666666</v>
       </c>
       <c r="N100" s="29"/>
-      <c r="O100" s="36"/>
+      <c r="O100" s="35"/>
       <c r="P100" s="31"/>
       <c r="R100" s="2">
         <f t="shared" si="17"/>
@@ -15142,7 +15149,7 @@
         <f>8*M101-L101-K101-F101</f>
         <v>42.666666666666671</v>
       </c>
-      <c r="O101" s="36">
+      <c r="O101" s="35">
         <f t="shared" si="20"/>
         <v>42.666666666666671</v>
       </c>
@@ -15215,7 +15222,7 @@
         <f t="shared" si="21"/>
         <v>71.333333333333314</v>
       </c>
-      <c r="O102" s="36">
+      <c r="O102" s="35">
         <f t="shared" si="20"/>
         <v>71.333333333333314</v>
       </c>
@@ -15289,7 +15296,7 @@
         <v>4.9943333333333335</v>
       </c>
       <c r="N103" s="29"/>
-      <c r="O103" s="36"/>
+      <c r="O103" s="35"/>
       <c r="P103" s="31"/>
       <c r="R103" s="2">
         <f t="shared" si="17"/>
@@ -15348,7 +15355,7 @@
         <v>0</v>
       </c>
       <c r="N104" s="29"/>
-      <c r="O104" s="36"/>
+      <c r="O104" s="35"/>
       <c r="P104" s="31"/>
       <c r="R104" s="2" t="e">
         <f t="shared" si="17"/>
@@ -15409,7 +15416,7 @@
         <v>0</v>
       </c>
       <c r="N105" s="29"/>
-      <c r="O105" s="36"/>
+      <c r="O105" s="35"/>
       <c r="P105" s="31"/>
       <c r="R105" s="2" t="e">
         <f t="shared" si="17"/>
@@ -15471,7 +15478,7 @@
         <v>0</v>
       </c>
       <c r="N106" s="29"/>
-      <c r="O106" s="36"/>
+      <c r="O106" s="35"/>
       <c r="P106" s="31"/>
       <c r="R106" s="2" t="e">
         <f t="shared" si="17"/>
@@ -15538,7 +15545,7 @@
         <v>0</v>
       </c>
       <c r="N107" s="29"/>
-      <c r="O107" s="36"/>
+      <c r="O107" s="35"/>
       <c r="P107" s="31"/>
       <c r="R107" s="2" t="e">
         <f t="shared" si="17"/>
@@ -15597,7 +15604,7 @@
         <v>0</v>
       </c>
       <c r="N108" s="29"/>
-      <c r="O108" s="37"/>
+      <c r="O108" s="36"/>
       <c r="P108" s="31"/>
       <c r="R108" s="2" t="e">
         <f t="shared" si="17"/>
